--- a/output/endemo2_specific_consumption_coef_heat.xlsx
+++ b/output/endemo2_specific_consumption_coef_heat.xlsx
@@ -7422,41 +7422,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(2018.0, 0.5872528941659089)</t>
+          <t>(2018, 9.583298562963716)</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-73.4362685</v>
+        <v>-271.9398607</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0368218</v>
+        <v>0.1399352</v>
       </c>
       <c r="G2" t="n">
-        <v>-1765.5713176</v>
+        <v>-26537.8228258</v>
       </c>
       <c r="H2" t="n">
-        <v>1.7256088</v>
+        <v>26.3538481</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0004214</v>
+        <v>-0.0065404</v>
       </c>
       <c r="J2" t="n">
-        <v>-73.4362685</v>
+        <v>-271.9398607</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0368218</v>
+        <v>0.1399352</v>
       </c>
       <c r="L2" t="n">
-        <v>-1765.5713176</v>
+        <v>-26537.8228258</v>
       </c>
       <c r="M2" t="n">
-        <v>1.7256088</v>
+        <v>26.3538481</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0004214</v>
+        <v>-0.0065404</v>
       </c>
     </row>
     <row r="3">
@@ -7470,41 +7470,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(2018.0, 0.05111659866867082)</t>
+          <t>(2018, 17.899500167758216)</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1587.7633865</v>
+        <v>25.9632577</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7893144</v>
+        <v>-0.0024166</v>
       </c>
       <c r="G3" t="n">
-        <v>183753.4280018</v>
+        <v>90505.41135140001</v>
       </c>
       <c r="H3" t="n">
-        <v>-182.5945438</v>
+        <v>-90.30284090000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0453606</v>
+        <v>0.02253</v>
       </c>
       <c r="J3" t="n">
-        <v>1587.7633865</v>
+        <v>25.9632577</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.7893144</v>
+        <v>-0.0024166</v>
       </c>
       <c r="L3" t="n">
-        <v>183753.4280018</v>
+        <v>90505.41135140001</v>
       </c>
       <c r="M3" t="n">
-        <v>-182.5945438</v>
+        <v>-90.30284090000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0453606</v>
+        <v>0.02253</v>
       </c>
     </row>
     <row r="4">
@@ -7518,41 +7518,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(2018.0, 1.3894108440734636)</t>
+          <t>(2018, 20.921968070096394)</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-88.1609045</v>
+        <v>-856.8567038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.044561</v>
+        <v>0.4369801</v>
       </c>
       <c r="G4" t="n">
-        <v>-33924.2280449</v>
+        <v>-8384.822412</v>
       </c>
       <c r="H4" t="n">
-        <v>33.8136797</v>
+        <v>7.9500509</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0084254</v>
+        <v>-0.0018745</v>
       </c>
       <c r="J4" t="n">
-        <v>-88.1609045</v>
+        <v>-856.8567038</v>
       </c>
       <c r="K4" t="n">
-        <v>0.044561</v>
+        <v>0.4369801</v>
       </c>
       <c r="L4" t="n">
-        <v>-33924.2280449</v>
+        <v>-8384.822412</v>
       </c>
       <c r="M4" t="n">
-        <v>33.8136797</v>
+        <v>7.9500509</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0084254</v>
+        <v>-0.0018745</v>
       </c>
     </row>
     <row r="5">
@@ -7562,45 +7562,45 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(2018, 7.470796460176992)</t>
+          <t>(2018, 3.387183689151022)</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>7.4707965</v>
+        <v>573.0192896999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.2819911</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1546.8553776</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-1.2539003</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.0002425</v>
       </c>
       <c r="J5" t="n">
-        <v>7.4707965</v>
+        <v>573.0192896999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.2819911</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1546.8553776</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-1.2539003</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.0002425</v>
       </c>
     </row>
     <row r="6">
@@ -7614,41 +7614,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(2018.0, 1.226462543015971)</t>
+          <t>(2018, 6.464486984911321)</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-92.0210956</v>
+        <v>2.4553165</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0462255</v>
+        <v>0.0020902</v>
       </c>
       <c r="G6" t="n">
-        <v>7476.5322866</v>
+        <v>9350.2145148</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.5073526</v>
+        <v>-9.3271734</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0018846</v>
+        <v>0.0023277</v>
       </c>
       <c r="J6" t="n">
-        <v>-92.0210956</v>
+        <v>2.4553165</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0462255</v>
+        <v>0.0020902</v>
       </c>
       <c r="L6" t="n">
-        <v>7476.5322866</v>
+        <v>9350.2145148</v>
       </c>
       <c r="M6" t="n">
-        <v>-7.5073526</v>
+        <v>-9.3271734</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0018846</v>
+        <v>0.0023277</v>
       </c>
     </row>
     <row r="7">
@@ -7662,41 +7662,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 3.9590990000000006)</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1441.6239937</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0.712221</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-327165.0914526</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>327.1966002</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0.08180179999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1441.6239937</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.712221</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-327165.0914526</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>327.1966002</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-0.08180179999999999</v>
       </c>
     </row>
     <row r="8">
@@ -7710,41 +7710,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 2.748047600326272)</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>322.9414565</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.1582117</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-56379.9763409</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>56.432513</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0.0141194</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>322.9414565</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.1582117</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-56379.9763409</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>56.432513</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-0.0141194</v>
       </c>
     </row>
     <row r="9">
@@ -7758,41 +7758,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 8.19282099176507)</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1167.3386271</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.5757592</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>13617.6679824</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-13.0014542</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.0031002</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1167.3386271</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.5757592</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>13617.6679824</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-13.0014542</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.0031002</v>
       </c>
     </row>
     <row r="10">
@@ -7806,41 +7806,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 7.534354823563072)</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>380.8198241</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.1854704</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>21052.6963922</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-20.8164453</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.0051474</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>380.8198241</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.1854704</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>21052.6963922</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-20.8164453</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.0051474</v>
       </c>
     </row>
     <row r="11">
@@ -7854,41 +7854,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(2018.0, 0.07418702166964783)</t>
+          <t>(2018, 4.7477250681758205)</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>131.9687646</v>
+        <v>783.359091</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0655022</v>
+        <v>-0.3872273</v>
       </c>
       <c r="G11" t="n">
-        <v>3422.5795405</v>
+        <v>125328.0289156</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.3496021</v>
+        <v>-124.6854716</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0008194</v>
+        <v>0.0310125</v>
       </c>
       <c r="J11" t="n">
-        <v>131.9687646</v>
+        <v>783.359091</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0655022</v>
+        <v>-0.3872273</v>
       </c>
       <c r="L11" t="n">
-        <v>3422.5795405</v>
+        <v>125328.0289156</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.3496021</v>
+        <v>-124.6854716</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0008194</v>
+        <v>0.0310125</v>
       </c>
     </row>
     <row r="12">
@@ -7902,41 +7902,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(2018.0, 3.0697311636726834)</t>
+          <t>(2018, 5.918357959870015)</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-358.1280285</v>
+        <v>342.0276205</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1795549</v>
+        <v>-0.1665838</v>
       </c>
       <c r="G12" t="n">
-        <v>6091.3274371</v>
+        <v>22436.6813499</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.2571396</v>
+        <v>-22.2175207</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001606</v>
+        <v>0.0055017</v>
       </c>
       <c r="J12" t="n">
-        <v>-358.1280285</v>
+        <v>342.0276205</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1795549</v>
+        <v>-0.1665838</v>
       </c>
       <c r="L12" t="n">
-        <v>6091.3274371</v>
+        <v>22436.6813499</v>
       </c>
       <c r="M12" t="n">
-        <v>-6.2571396</v>
+        <v>-22.2175207</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001606</v>
+        <v>0.0055017</v>
       </c>
     </row>
     <row r="13">
@@ -7950,41 +7950,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(2018.0, 0.09187877300873204)</t>
+          <t>(2018, 5.560723063307562)</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>229.9368418</v>
+        <v>1751.837472</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1140008</v>
+        <v>-0.8685941</v>
       </c>
       <c r="G13" t="n">
-        <v>-18465.8562294</v>
+        <v>113238.405569</v>
       </c>
       <c r="H13" t="n">
-        <v>18.5448006</v>
+        <v>-112.1345735</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0046554</v>
+        <v>0.027761</v>
       </c>
       <c r="J13" t="n">
-        <v>229.9368418</v>
+        <v>1751.837472</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1140008</v>
+        <v>-0.8685941</v>
       </c>
       <c r="L13" t="n">
-        <v>-18465.8562294</v>
+        <v>113238.405569</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5448006</v>
+        <v>-112.1345735</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0046554</v>
+        <v>0.027761</v>
       </c>
     </row>
     <row r="14">
@@ -7998,41 +7998,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(2014.0, 0.18192197906755472)</t>
+          <t>(2014, 20.019337773549005)</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-12.0245844</v>
+        <v>-851.3865668</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0060041</v>
+        <v>0.4298682</v>
       </c>
       <c r="G14" t="n">
-        <v>5285.493911</v>
+        <v>-82850.6752418</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.2757009</v>
+        <v>82.1843823</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0013165</v>
+        <v>-0.0203775</v>
       </c>
       <c r="J14" t="n">
-        <v>-12.0245844</v>
+        <v>-851.3865668</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0060041</v>
+        <v>0.4298682</v>
       </c>
       <c r="L14" t="n">
-        <v>5285.493911</v>
+        <v>-82850.6752418</v>
       </c>
       <c r="M14" t="n">
-        <v>-5.2757009</v>
+        <v>82.1843823</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0013165</v>
+        <v>-0.0203775</v>
       </c>
     </row>
     <row r="15">
@@ -8046,41 +8046,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(2018.0, 0.8649619511272865)</t>
+          <t>(2018, 6.969020418773928)</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>96.7053875</v>
+        <v>23.2934209</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0467605</v>
+        <v>-0.0071853</v>
       </c>
       <c r="G15" t="n">
-        <v>-29987.2593879</v>
+        <v>-77111.9968198</v>
       </c>
       <c r="H15" t="n">
-        <v>29.9799509</v>
+        <v>76.9813072</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0074923</v>
+        <v>-0.0192102</v>
       </c>
       <c r="J15" t="n">
-        <v>96.7053875</v>
+        <v>23.2934209</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0467605</v>
+        <v>-0.0071853</v>
       </c>
       <c r="L15" t="n">
-        <v>-29987.2593879</v>
+        <v>-77111.9968198</v>
       </c>
       <c r="M15" t="n">
-        <v>29.9799509</v>
+        <v>76.9813072</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0074923</v>
+        <v>-0.0192102</v>
       </c>
     </row>
     <row r="16">
@@ -8094,41 +8094,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(2018.0, 1.4912338926174498)</t>
+          <t>(2018, 5.384058456375839)</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-46.5176056</v>
+        <v>253.6107667</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0240189</v>
+        <v>-0.1228325</v>
       </c>
       <c r="G16" t="n">
-        <v>-44274.7685666</v>
+        <v>-29071.7757678</v>
       </c>
       <c r="H16" t="n">
-        <v>44.1647593</v>
+        <v>29.1445305</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0110132</v>
+        <v>-0.0073022</v>
       </c>
       <c r="J16" t="n">
-        <v>-46.5176056</v>
+        <v>253.6107667</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0240189</v>
+        <v>-0.1228325</v>
       </c>
       <c r="L16" t="n">
-        <v>-44274.7685666</v>
+        <v>-29071.7757678</v>
       </c>
       <c r="M16" t="n">
-        <v>44.1647593</v>
+        <v>29.1445305</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0110132</v>
+        <v>-0.0073022</v>
       </c>
     </row>
     <row r="17">
@@ -8138,45 +8138,45 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(2018, 7.470796460176992)</t>
+          <t>(2018, 11.117266817141468)</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.4707965</v>
+        <v>9.254658600000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.0004836</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>31415.1599332</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-31.3432816</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.007820300000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>7.4707965</v>
+        <v>9.254658600000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.0004836</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>31415.1599332</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-31.3432816</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.007820300000000001</v>
       </c>
     </row>
     <row r="18">
@@ -8190,41 +8190,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(2018.0, 0.6816800967045097)</t>
+          <t>(2018, 11.428396708319347)</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1490.826433</v>
+        <v>1638.7763499</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7413659</v>
+        <v>-0.808906</v>
       </c>
       <c r="G18" t="n">
-        <v>337158.2963681</v>
+        <v>143585.768651</v>
       </c>
       <c r="H18" t="n">
-        <v>-335.74468</v>
+        <v>-142.4750402</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0835837</v>
+        <v>0.0353458</v>
       </c>
       <c r="J18" t="n">
-        <v>1490.826433</v>
+        <v>1638.7763499</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.7413659</v>
+        <v>-0.808906</v>
       </c>
       <c r="L18" t="n">
-        <v>337158.2963681</v>
+        <v>143585.768651</v>
       </c>
       <c r="M18" t="n">
-        <v>-335.74468</v>
+        <v>-142.4750402</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0835837</v>
+        <v>0.0353458</v>
       </c>
     </row>
     <row r="19">
@@ -8238,41 +8238,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(2018.0, 2.9500578709771372)</t>
+          <t>(2018, 23.01393268287947)</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-207.9613011</v>
+        <v>1824.1461685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1042687</v>
+        <v>-0.8951371</v>
       </c>
       <c r="G19" t="n">
-        <v>8813.108351299999</v>
+        <v>84538.2642745</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.8989517</v>
+        <v>-83.4455961</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0022463</v>
+        <v>0.0205964</v>
       </c>
       <c r="J19" t="n">
-        <v>-207.9613011</v>
+        <v>1824.1461685</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1042687</v>
+        <v>-0.8951371</v>
       </c>
       <c r="L19" t="n">
-        <v>8813.108351299999</v>
+        <v>84538.2642745</v>
       </c>
       <c r="M19" t="n">
-        <v>-8.8989517</v>
+        <v>-83.4455961</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0022463</v>
+        <v>0.0205964</v>
       </c>
     </row>
     <row r="20">
@@ -8282,45 +8282,45 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(2018, 7.470796460176992)</t>
+          <t>(2018, 4.995703117277112)</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.4707965</v>
+        <v>1340.5664527</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.6599931</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-292567.0243813</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>292.6660685</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-0.0731851</v>
       </c>
       <c r="J20" t="n">
-        <v>7.4707965</v>
+        <v>1340.5664527</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.6599931</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-292567.0243813</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>292.6660685</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0.0731851</v>
       </c>
     </row>
     <row r="21">
@@ -8334,41 +8334,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(2018.0, 0.04819063417123899)</t>
+          <t>(2018, 5.591537195355365)</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.2553431</v>
+        <v>-59.0859632</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0026369</v>
+        <v>0.0329699</v>
       </c>
       <c r="G21" t="n">
-        <v>-181.7503188</v>
+        <v>-111696.1153803</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1787827</v>
+        <v>111.4491129</v>
       </c>
       <c r="I21" t="n">
-        <v>-4.39e-05</v>
+        <v>-0.0277984</v>
       </c>
       <c r="J21" t="n">
-        <v>-5.2553431</v>
+        <v>-59.0859632</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0026369</v>
+        <v>0.0329699</v>
       </c>
       <c r="L21" t="n">
-        <v>-181.7503188</v>
+        <v>-111696.1153803</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1787827</v>
+        <v>111.4491129</v>
       </c>
       <c r="N21" t="n">
-        <v>-4.39e-05</v>
+        <v>-0.0277984</v>
       </c>
     </row>
     <row r="22">
@@ -8382,41 +8382,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(2018.0, 1.570431094059052)</t>
+          <t>(2018, 20.1020680837881)</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-231.4917056</v>
+        <v>-89.3775302</v>
       </c>
       <c r="F22" t="n">
-        <v>0.116035</v>
+        <v>0.0542741</v>
       </c>
       <c r="G22" t="n">
-        <v>9107.060989199999</v>
+        <v>114610.0201409</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.202896900000001</v>
+        <v>-114.4041336</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0023248</v>
+        <v>0.028554</v>
       </c>
       <c r="J22" t="n">
-        <v>-231.4917056</v>
+        <v>-89.3775302</v>
       </c>
       <c r="K22" t="n">
-        <v>0.116035</v>
+        <v>0.0542741</v>
       </c>
       <c r="L22" t="n">
-        <v>9107.060989199999</v>
+        <v>114610.0201409</v>
       </c>
       <c r="M22" t="n">
-        <v>-9.202896900000001</v>
+        <v>-114.4041336</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0023248</v>
+        <v>0.028554</v>
       </c>
     </row>
     <row r="23">
@@ -8430,41 +8430,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(2018.0, 1.2426024279210925)</t>
+          <t>(2018, 18.740879077911607)</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-161.7425908</v>
+        <v>-676.3703421</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0810633</v>
+        <v>0.3439364</v>
       </c>
       <c r="G23" t="n">
-        <v>3557.8292492</v>
+        <v>17493.1939022</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.631149</v>
+        <v>-17.7896773</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0009262</v>
+        <v>0.0045244</v>
       </c>
       <c r="J23" t="n">
-        <v>-161.7425908</v>
+        <v>-676.3703421</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0810633</v>
+        <v>0.3439364</v>
       </c>
       <c r="L23" t="n">
-        <v>3557.8292492</v>
+        <v>17493.1939022</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.631149</v>
+        <v>-17.7896773</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0009262</v>
+        <v>0.0045244</v>
       </c>
     </row>
     <row r="24">
@@ -8478,41 +8478,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 16.04118287348388)</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>165.3079519</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-0.0747198</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>54940.9389535</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-54.7419711</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.0136395</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>165.3079519</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0747198</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>54940.9389535</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-54.7419711</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.0136395</v>
       </c>
     </row>
     <row r="25">
@@ -8522,45 +8522,45 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(2018, 7.470796460176992)</t>
+          <t>(2018, 9.120409472265022)</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.4707965</v>
+        <v>-186.1801097</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.098095</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>70960.8689206</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-70.90818160000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.0177161</v>
       </c>
       <c r="J25" t="n">
-        <v>7.4707965</v>
+        <v>-186.1801097</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.098095</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>70960.8689206</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-70.90818160000001</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.0177161</v>
       </c>
     </row>
     <row r="26">
@@ -8574,41 +8574,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(2018.0, 0.011559082892416226)</t>
+          <t>(2018, 4.706947901234567)</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.5557849</v>
+        <v>231.6432824</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0007843</v>
+        <v>-0.1115791</v>
       </c>
       <c r="G26" t="n">
-        <v>464.6239322</v>
+        <v>-77020.4938886</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.464473</v>
+        <v>76.987706</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001161</v>
+        <v>-0.0192363</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.5557849</v>
+        <v>231.6432824</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0007843</v>
+        <v>-0.1115791</v>
       </c>
       <c r="L26" t="n">
-        <v>464.6239322</v>
+        <v>-77020.4938886</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.464473</v>
+        <v>76.987706</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0001161</v>
+        <v>-0.0192363</v>
       </c>
     </row>
     <row r="27">
@@ -8718,41 +8718,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(2018.0, 0.0)</t>
+          <t>(2018, 1.4459066666666667)</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>462.8136411</v>
+        <v>314.4048142</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2294793</v>
+        <v>-0.1545901</v>
       </c>
       <c r="G29" t="n">
-        <v>-88318.39476559999</v>
+        <v>-152668.3449778</v>
       </c>
       <c r="H29" t="n">
-        <v>88.3651947</v>
+        <v>152.5067343</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0221018</v>
+        <v>-0.0380845</v>
       </c>
       <c r="J29" t="n">
-        <v>462.8136411</v>
+        <v>314.4048142</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.2294793</v>
+        <v>-0.1545901</v>
       </c>
       <c r="L29" t="n">
-        <v>-88318.39476559999</v>
+        <v>-152668.3449778</v>
       </c>
       <c r="M29" t="n">
-        <v>88.3651947</v>
+        <v>152.5067343</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0221018</v>
+        <v>-0.0380845</v>
       </c>
     </row>
     <row r="30">
@@ -8814,41 +8814,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(2018.0, 0.6630269299820467)</t>
+          <t>(2018, 4.657920520646321)</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-146.9588848</v>
+        <v>-741.7642045</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07374459999999999</v>
+        <v>0.3710061</v>
       </c>
       <c r="G31" t="n">
-        <v>-96686.0190553</v>
+        <v>-143314.1684743</v>
       </c>
       <c r="H31" t="n">
-        <v>96.2105269</v>
+        <v>142.3493117</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0239338</v>
+        <v>-0.0353463</v>
       </c>
       <c r="J31" t="n">
-        <v>-146.9588848</v>
+        <v>-741.7642045</v>
       </c>
       <c r="K31" t="n">
-        <v>0.07374459999999999</v>
+        <v>0.3710061</v>
       </c>
       <c r="L31" t="n">
-        <v>-96686.0190553</v>
+        <v>-143314.1684743</v>
       </c>
       <c r="M31" t="n">
-        <v>96.2105269</v>
+        <v>142.3493117</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0239338</v>
+        <v>-0.0353463</v>
       </c>
     </row>
     <row r="32">
@@ -8958,41 +8958,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(2018.0, 0.1148691767708998)</t>
+          <t>(2018, 9.56651403956605)</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>575.3684328000001</v>
+        <v>4117.4344685</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2855107</v>
+        <v>-2.0437684</v>
       </c>
       <c r="G34" t="n">
-        <v>27393.0305052</v>
+        <v>503753.0195368</v>
       </c>
       <c r="H34" t="n">
-        <v>-27.050111</v>
+        <v>-500.6907684</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0066778</v>
+        <v>0.1244129</v>
       </c>
       <c r="J34" t="n">
-        <v>575.3684328000001</v>
+        <v>4117.4344685</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.2855107</v>
+        <v>-2.0437684</v>
       </c>
       <c r="L34" t="n">
-        <v>27393.0305052</v>
+        <v>503753.0195368</v>
       </c>
       <c r="M34" t="n">
-        <v>-27.050111</v>
+        <v>-500.6907684</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0066778</v>
+        <v>0.1244129</v>
       </c>
     </row>
     <row r="35">
@@ -9006,41 +9006,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(2018.0, 0.3780471907182897)</t>
+          <t>(2018, 18.387573849563292)</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>62.7754464</v>
+        <v>1178.1929411</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0308993</v>
+        <v>-0.5773882</v>
       </c>
       <c r="G35" t="n">
-        <v>-20172.5055726</v>
+        <v>22560.6833833</v>
       </c>
       <c r="H35" t="n">
-        <v>20.164344</v>
+        <v>-21.917571</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0050387</v>
+        <v>0.0053244</v>
       </c>
       <c r="J35" t="n">
-        <v>62.7754464</v>
+        <v>1178.1929411</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0308993</v>
+        <v>-0.5773882</v>
       </c>
       <c r="L35" t="n">
-        <v>-20172.5055726</v>
+        <v>22560.6833833</v>
       </c>
       <c r="M35" t="n">
-        <v>20.164344</v>
+        <v>-21.917571</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0050387</v>
+        <v>0.0053244</v>
       </c>
     </row>
   </sheetData>

--- a/output/endemo2_specific_consumption_coef_heat.xlsx
+++ b/output/endemo2_specific_consumption_coef_heat.xlsx
@@ -7429,34 +7429,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-271.9398607</v>
+        <v>-261.092183753968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1399352</v>
+        <v>0.134484074492</v>
       </c>
       <c r="G2" t="n">
-        <v>-26537.8228258</v>
+        <v>-23431.99349141002</v>
       </c>
       <c r="H2" t="n">
-        <v>26.3538481</v>
+        <v>23.258877643235</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0065404</v>
+        <v>-0.005769391894</v>
       </c>
       <c r="J2" t="n">
-        <v>-271.9398607</v>
+        <v>-261.092183753968</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1399352</v>
+        <v>0.134484074492</v>
       </c>
       <c r="L2" t="n">
-        <v>-26537.8228258</v>
+        <v>-23431.99349141002</v>
       </c>
       <c r="M2" t="n">
-        <v>26.3538481</v>
+        <v>23.258877643235</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0065404</v>
+        <v>-0.005769391894</v>
       </c>
     </row>
     <row r="3">
@@ -7477,34 +7477,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.9632577</v>
+        <v>-30.44046842074</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0024166</v>
+        <v>0.025926991566</v>
       </c>
       <c r="G3" t="n">
-        <v>90505.41135140001</v>
+        <v>73472.61084267939</v>
       </c>
       <c r="H3" t="n">
-        <v>-90.30284090000001</v>
+        <v>-73.32959183150901</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02253</v>
+        <v>0.01830174419</v>
       </c>
       <c r="J3" t="n">
-        <v>25.9632577</v>
+        <v>-30.44046842074</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0024166</v>
+        <v>0.025926991566</v>
       </c>
       <c r="L3" t="n">
-        <v>90505.41135140001</v>
+        <v>73472.61084267939</v>
       </c>
       <c r="M3" t="n">
-        <v>-90.30284090000001</v>
+        <v>-73.32959183150901</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02253</v>
+        <v>0.01830174419</v>
       </c>
     </row>
     <row r="4">
@@ -7525,34 +7525,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-856.8567038</v>
+        <v>-849.700794374014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4369801</v>
+        <v>0.433384170937</v>
       </c>
       <c r="G4" t="n">
-        <v>-8384.822412</v>
+        <v>-6148.130282926714</v>
       </c>
       <c r="H4" t="n">
-        <v>7.9500509</v>
+        <v>5.721178856293</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0018745</v>
+        <v>-0.001319271777</v>
       </c>
       <c r="J4" t="n">
-        <v>-856.8567038</v>
+        <v>-849.700794374014</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4369801</v>
+        <v>0.433384170937</v>
       </c>
       <c r="L4" t="n">
-        <v>-8384.822412</v>
+        <v>-6148.130282926714</v>
       </c>
       <c r="M4" t="n">
-        <v>7.9500509</v>
+        <v>5.721178856293</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0018745</v>
+        <v>-0.001319271777</v>
       </c>
     </row>
     <row r="5">
@@ -7573,34 +7573,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>573.0192896999999</v>
+        <v>587.071660179378</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2819911</v>
+        <v>-0.289052557496</v>
       </c>
       <c r="G5" t="n">
-        <v>1546.8553776</v>
+        <v>6241.232902265833</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.2539003</v>
+        <v>-5.931864985338</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002425</v>
+        <v>0.001407846488</v>
       </c>
       <c r="J5" t="n">
-        <v>573.0192896999999</v>
+        <v>587.071660179378</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2819911</v>
+        <v>-0.289052557496</v>
       </c>
       <c r="L5" t="n">
-        <v>1546.8553776</v>
+        <v>6241.232902265833</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.2539003</v>
+        <v>-5.931864985338</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0002425</v>
+        <v>0.001407846488</v>
       </c>
     </row>
     <row r="6">
@@ -7621,34 +7621,34 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.4553165</v>
+        <v>5.143238135853</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0020902</v>
+        <v>0.0007394641779999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9350.2145148</v>
+        <v>10423.79257958418</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.3271734</v>
+        <v>-10.396997966379</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0023277</v>
+        <v>0.002594170604</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4553165</v>
+        <v>5.143238135853</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0020902</v>
+        <v>0.0007394641779999999</v>
       </c>
       <c r="L6" t="n">
-        <v>9350.2145148</v>
+        <v>10423.79257958418</v>
       </c>
       <c r="M6" t="n">
-        <v>-9.3271734</v>
+        <v>-10.396997966379</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0023277</v>
+        <v>0.002594170604</v>
       </c>
     </row>
     <row r="7">
@@ -7669,34 +7669,34 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1441.6239937</v>
+        <v>1429.548678857135</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.712221</v>
+        <v>-0.7061391125649999</v>
       </c>
       <c r="G7" t="n">
-        <v>-327165.0914526</v>
+        <v>-338458.8935053673</v>
       </c>
       <c r="H7" t="n">
-        <v>327.1966002</v>
+        <v>338.452596120029</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08180179999999999</v>
+        <v>-0.084606215098</v>
       </c>
       <c r="J7" t="n">
-        <v>1441.6239937</v>
+        <v>1429.548678857135</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.712221</v>
+        <v>-0.7061391125649999</v>
       </c>
       <c r="L7" t="n">
-        <v>-327165.0914526</v>
+        <v>-338458.8935053673</v>
       </c>
       <c r="M7" t="n">
-        <v>327.1966002</v>
+        <v>338.452596120029</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.08180179999999999</v>
+        <v>-0.084606215098</v>
       </c>
     </row>
     <row r="8">
@@ -7717,34 +7717,34 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>322.9414565</v>
+        <v>324.334709019177</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1582117</v>
+        <v>-0.158911850001</v>
       </c>
       <c r="G8" t="n">
-        <v>-56379.9763409</v>
+        <v>-57003.49427617952</v>
       </c>
       <c r="H8" t="n">
-        <v>56.432513</v>
+        <v>57.053850929205</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0141194</v>
+        <v>-0.014274227292</v>
       </c>
       <c r="J8" t="n">
-        <v>322.9414565</v>
+        <v>324.334709019177</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1582117</v>
+        <v>-0.158911850001</v>
       </c>
       <c r="L8" t="n">
-        <v>-56379.9763409</v>
+        <v>-57003.49427617952</v>
       </c>
       <c r="M8" t="n">
-        <v>56.432513</v>
+        <v>57.053850929205</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0141194</v>
+        <v>-0.014274227292</v>
       </c>
     </row>
     <row r="9">
@@ -7765,34 +7765,34 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1167.3386271</v>
+        <v>1161.572768553227</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5757592</v>
+        <v>-0.572861816244</v>
       </c>
       <c r="G9" t="n">
-        <v>13617.6679824</v>
+        <v>11937.86450335169</v>
       </c>
       <c r="H9" t="n">
-        <v>-13.0014542</v>
+        <v>-11.327523794142</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0031002</v>
+        <v>0.002683221052</v>
       </c>
       <c r="J9" t="n">
-        <v>1167.3386271</v>
+        <v>1161.572768553227</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.5757592</v>
+        <v>-0.572861816244</v>
       </c>
       <c r="L9" t="n">
-        <v>13617.6679824</v>
+        <v>11937.86450335169</v>
       </c>
       <c r="M9" t="n">
-        <v>-13.0014542</v>
+        <v>-11.327523794142</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0031002</v>
+        <v>0.002683221052</v>
       </c>
     </row>
     <row r="10">
@@ -7813,34 +7813,34 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>380.8198241</v>
+        <v>374.276456625246</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1854704</v>
+        <v>-0.182182243025</v>
       </c>
       <c r="G10" t="n">
-        <v>21052.6963922</v>
+        <v>19271.81139776916</v>
       </c>
       <c r="H10" t="n">
-        <v>-20.8164453</v>
+        <v>-19.041786781313</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0051474</v>
+        <v>0.004705353644</v>
       </c>
       <c r="J10" t="n">
-        <v>380.8198241</v>
+        <v>374.276456625246</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1854704</v>
+        <v>-0.182182243025</v>
       </c>
       <c r="L10" t="n">
-        <v>21052.6963922</v>
+        <v>19271.81139776916</v>
       </c>
       <c r="M10" t="n">
-        <v>-20.8164453</v>
+        <v>-19.041786781313</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0051474</v>
+        <v>0.004705353644</v>
       </c>
     </row>
     <row r="11">
@@ -7861,34 +7861,34 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>783.359091</v>
+        <v>777.506289682108</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3872273</v>
+        <v>-0.384286240911</v>
       </c>
       <c r="G11" t="n">
-        <v>125328.0289156</v>
+        <v>125768.3547636789</v>
       </c>
       <c r="H11" t="n">
-        <v>-124.6854716</v>
+        <v>-125.124257907391</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0310125</v>
+        <v>0.031121844523</v>
       </c>
       <c r="J11" t="n">
-        <v>783.359091</v>
+        <v>777.506289682108</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.3872273</v>
+        <v>-0.384286240911</v>
       </c>
       <c r="L11" t="n">
-        <v>125328.0289156</v>
+        <v>125768.3547636789</v>
       </c>
       <c r="M11" t="n">
-        <v>-124.6854716</v>
+        <v>-125.124257907391</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0310125</v>
+        <v>0.031121844523</v>
       </c>
     </row>
     <row r="12">
@@ -7909,34 +7909,34 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>342.0276205</v>
+        <v>343.814097762301</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1665838</v>
+        <v>-0.167481491958</v>
       </c>
       <c r="G12" t="n">
-        <v>22436.6813499</v>
+        <v>23454.69964288389</v>
       </c>
       <c r="H12" t="n">
-        <v>-22.2175207</v>
+        <v>-23.231979759489</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0055017</v>
+        <v>0.00575444839</v>
       </c>
       <c r="J12" t="n">
-        <v>342.0276205</v>
+        <v>343.814097762301</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1665838</v>
+        <v>-0.167481491958</v>
       </c>
       <c r="L12" t="n">
-        <v>22436.6813499</v>
+        <v>23454.69964288389</v>
       </c>
       <c r="M12" t="n">
-        <v>-22.2175207</v>
+        <v>-23.231979759489</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0055017</v>
+        <v>0.00575444839</v>
       </c>
     </row>
     <row r="13">
@@ -7957,34 +7957,34 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1751.837472</v>
+        <v>1742.488129895361</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8685941</v>
+        <v>-0.863895917567</v>
       </c>
       <c r="G13" t="n">
-        <v>113238.405569</v>
+        <v>112264.9637034967</v>
       </c>
       <c r="H13" t="n">
-        <v>-112.1345735</v>
+        <v>-111.164535043386</v>
       </c>
       <c r="I13" t="n">
-        <v>0.027761</v>
+        <v>0.027519321159</v>
       </c>
       <c r="J13" t="n">
-        <v>1751.837472</v>
+        <v>1742.488129895361</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.8685941</v>
+        <v>-0.863895917567</v>
       </c>
       <c r="L13" t="n">
-        <v>113238.405569</v>
+        <v>112264.9637034967</v>
       </c>
       <c r="M13" t="n">
-        <v>-112.1345735</v>
+        <v>-111.164535043386</v>
       </c>
       <c r="N13" t="n">
-        <v>0.027761</v>
+        <v>0.027519321159</v>
       </c>
     </row>
     <row r="14">
@@ -8005,34 +8005,34 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-851.3865668</v>
+        <v>-870.123772240489</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4298682</v>
+        <v>0.439246136851</v>
       </c>
       <c r="G14" t="n">
-        <v>-82850.6752418</v>
+        <v>-95803.6069123714</v>
       </c>
       <c r="H14" t="n">
-        <v>82.1843823</v>
+        <v>95.086536885925</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0203775</v>
+        <v>-0.023590343945</v>
       </c>
       <c r="J14" t="n">
-        <v>-851.3865668</v>
+        <v>-870.123772240489</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4298682</v>
+        <v>0.439246136851</v>
       </c>
       <c r="L14" t="n">
-        <v>-82850.6752418</v>
+        <v>-95803.6069123714</v>
       </c>
       <c r="M14" t="n">
-        <v>82.1843823</v>
+        <v>95.086536885925</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0203775</v>
+        <v>-0.023590343945</v>
       </c>
     </row>
     <row r="15">
@@ -8053,34 +8053,34 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>23.2934209</v>
+        <v>24.043195028042</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0071853</v>
+        <v>-0.007561929633</v>
       </c>
       <c r="G15" t="n">
-        <v>-77111.9968198</v>
+        <v>-78203.01267452863</v>
       </c>
       <c r="H15" t="n">
-        <v>76.9813072</v>
+        <v>78.068235462968</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0192102</v>
+        <v>-0.019480869813</v>
       </c>
       <c r="J15" t="n">
-        <v>23.2934209</v>
+        <v>24.043195028042</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0071853</v>
+        <v>-0.007561929633</v>
       </c>
       <c r="L15" t="n">
-        <v>-77111.9968198</v>
+        <v>-78203.01267452863</v>
       </c>
       <c r="M15" t="n">
-        <v>76.9813072</v>
+        <v>78.068235462968</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0192102</v>
+        <v>-0.019480869813</v>
       </c>
     </row>
     <row r="16">
@@ -8101,34 +8101,34 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>253.6107667</v>
+        <v>254.49426467161</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1228325</v>
+        <v>-0.123276437148</v>
       </c>
       <c r="G16" t="n">
-        <v>-29071.7757678</v>
+        <v>-29340.02809988912</v>
       </c>
       <c r="H16" t="n">
-        <v>29.1445305</v>
+        <v>29.411844944209</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0073022</v>
+        <v>-0.007368828478</v>
       </c>
       <c r="J16" t="n">
-        <v>253.6107667</v>
+        <v>254.49426467161</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1228325</v>
+        <v>-0.123276437148</v>
       </c>
       <c r="L16" t="n">
-        <v>-29071.7757678</v>
+        <v>-29340.02809988912</v>
       </c>
       <c r="M16" t="n">
-        <v>29.1445305</v>
+        <v>29.411844944209</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0073022</v>
+        <v>-0.007368828478</v>
       </c>
     </row>
     <row r="17">
@@ -8149,34 +8149,34 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.254658600000001</v>
+        <v>11.073362943876</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0004836</v>
+        <v>-0.000430313369</v>
       </c>
       <c r="G17" t="n">
-        <v>31415.1599332</v>
+        <v>32622.41541345948</v>
       </c>
       <c r="H17" t="n">
-        <v>-31.3432816</v>
+        <v>-32.54631613663</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007820300000000001</v>
+        <v>0.008119995418999999</v>
       </c>
       <c r="J17" t="n">
-        <v>9.254658600000001</v>
+        <v>11.073362943876</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0004836</v>
+        <v>-0.000430313369</v>
       </c>
       <c r="L17" t="n">
-        <v>31415.1599332</v>
+        <v>32622.41541345948</v>
       </c>
       <c r="M17" t="n">
-        <v>-31.3432816</v>
+        <v>-32.54631613663</v>
       </c>
       <c r="N17" t="n">
-        <v>0.007820300000000001</v>
+        <v>0.008119995418999999</v>
       </c>
     </row>
     <row r="18">
@@ -8197,34 +8197,34 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1638.7763499</v>
+        <v>1625.981122865376</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.808906</v>
+        <v>-0.80247621196</v>
       </c>
       <c r="G18" t="n">
-        <v>143585.768651</v>
+        <v>142049.7456219967</v>
       </c>
       <c r="H18" t="n">
-        <v>-142.4750402</v>
+        <v>-140.944387550103</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0353458</v>
+        <v>0.034964532359</v>
       </c>
       <c r="J18" t="n">
-        <v>1638.7763499</v>
+        <v>1625.981122865376</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.808906</v>
+        <v>-0.80247621196</v>
       </c>
       <c r="L18" t="n">
-        <v>143585.768651</v>
+        <v>142049.7456219967</v>
       </c>
       <c r="M18" t="n">
-        <v>-142.4750402</v>
+        <v>-140.944387550103</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0353458</v>
+        <v>0.034964532359</v>
       </c>
     </row>
     <row r="19">
@@ -8245,34 +8245,34 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1824.1461685</v>
+        <v>1818.988797160781</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8951371</v>
+        <v>-0.892545496068</v>
       </c>
       <c r="G19" t="n">
-        <v>84538.2642745</v>
+        <v>84408.01367514276</v>
       </c>
       <c r="H19" t="n">
-        <v>-83.4455961</v>
+        <v>-83.31580087051999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0205964</v>
+        <v>0.020564087875</v>
       </c>
       <c r="J19" t="n">
-        <v>1824.1461685</v>
+        <v>1818.988797160781</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.8951371</v>
+        <v>-0.892545496068</v>
       </c>
       <c r="L19" t="n">
-        <v>84538.2642745</v>
+        <v>84408.01367514276</v>
       </c>
       <c r="M19" t="n">
-        <v>-83.4455961</v>
+        <v>-83.31580087051999</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0205964</v>
+        <v>0.020564087875</v>
       </c>
     </row>
     <row r="20">
@@ -8293,34 +8293,34 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1340.5664527</v>
+        <v>1314.543556275201</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6599931</v>
+        <v>-0.646916305793</v>
       </c>
       <c r="G20" t="n">
-        <v>-292567.0243813</v>
+        <v>-306860.4957595402</v>
       </c>
       <c r="H20" t="n">
-        <v>292.6660685</v>
+        <v>306.909565963935</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0731851</v>
+        <v>-0.07673342309800001</v>
       </c>
       <c r="J20" t="n">
-        <v>1340.5664527</v>
+        <v>1314.543556275201</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.6599931</v>
+        <v>-0.646916305793</v>
       </c>
       <c r="L20" t="n">
-        <v>-292567.0243813</v>
+        <v>-306860.4957595402</v>
       </c>
       <c r="M20" t="n">
-        <v>292.6660685</v>
+        <v>306.909565963935</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0731851</v>
+        <v>-0.07673342309800001</v>
       </c>
     </row>
     <row r="21">
@@ -8341,34 +8341,34 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-59.0859632</v>
+        <v>-59.002884210532</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0329699</v>
+        <v>0.032928102865</v>
       </c>
       <c r="G21" t="n">
-        <v>-111696.1153803</v>
+        <v>-113808.7627995997</v>
       </c>
       <c r="H21" t="n">
-        <v>111.4491129</v>
+        <v>113.554373889886</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0277984</v>
+        <v>-0.028322892322</v>
       </c>
       <c r="J21" t="n">
-        <v>-59.0859632</v>
+        <v>-59.002884210532</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0329699</v>
+        <v>0.032928102865</v>
       </c>
       <c r="L21" t="n">
-        <v>-111696.1153803</v>
+        <v>-113808.7627995997</v>
       </c>
       <c r="M21" t="n">
-        <v>111.4491129</v>
+        <v>113.554373889886</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.0277984</v>
+        <v>-0.028322892322</v>
       </c>
     </row>
     <row r="22">
@@ -8389,34 +8389,34 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-89.3775302</v>
+        <v>-70.279892033198</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0542741</v>
+        <v>0.044676056489</v>
       </c>
       <c r="G22" t="n">
-        <v>114610.0201409</v>
+        <v>123646.0897581631</v>
       </c>
       <c r="H22" t="n">
-        <v>-114.4041336</v>
+        <v>-123.408307251605</v>
       </c>
       <c r="I22" t="n">
-        <v>0.028554</v>
+        <v>0.030797011516</v>
       </c>
       <c r="J22" t="n">
-        <v>-89.3775302</v>
+        <v>-70.279892033198</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0542741</v>
+        <v>0.044676056489</v>
       </c>
       <c r="L22" t="n">
-        <v>114610.0201409</v>
+        <v>123646.0897581631</v>
       </c>
       <c r="M22" t="n">
-        <v>-114.4041336</v>
+        <v>-123.408307251605</v>
       </c>
       <c r="N22" t="n">
-        <v>0.028554</v>
+        <v>0.030797011516</v>
       </c>
     </row>
     <row r="23">
@@ -8437,34 +8437,34 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-676.3703421</v>
+        <v>-681.675656407076</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3439364</v>
+        <v>0.346602361737</v>
       </c>
       <c r="G23" t="n">
-        <v>17493.1939022</v>
+        <v>16076.27777509058</v>
       </c>
       <c r="H23" t="n">
-        <v>-17.7896773</v>
+        <v>-16.377715152342</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0045244</v>
+        <v>0.004172612856</v>
       </c>
       <c r="J23" t="n">
-        <v>-676.3703421</v>
+        <v>-681.675656407076</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3439364</v>
+        <v>0.346602361737</v>
       </c>
       <c r="L23" t="n">
-        <v>17493.1939022</v>
+        <v>16076.27777509058</v>
       </c>
       <c r="M23" t="n">
-        <v>-17.7896773</v>
+        <v>-16.377715152342</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0045244</v>
+        <v>0.004172612856</v>
       </c>
     </row>
     <row r="24">
@@ -8485,34 +8485,34 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>165.3079519</v>
+        <v>165.06117645879</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0747198</v>
+        <v>-0.074595799711</v>
       </c>
       <c r="G24" t="n">
-        <v>54940.9389535</v>
+        <v>55908.97956746679</v>
       </c>
       <c r="H24" t="n">
-        <v>-54.7419711</v>
+        <v>-55.706627148947</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0136395</v>
+        <v>0.013879844664</v>
       </c>
       <c r="J24" t="n">
-        <v>165.3079519</v>
+        <v>165.06117645879</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0747198</v>
+        <v>-0.074595799711</v>
       </c>
       <c r="L24" t="n">
-        <v>54940.9389535</v>
+        <v>55908.97956746679</v>
       </c>
       <c r="M24" t="n">
-        <v>-54.7419711</v>
+        <v>-55.706627148947</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0136395</v>
+        <v>0.013879844664</v>
       </c>
     </row>
     <row r="25">
@@ -8533,34 +8533,34 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-186.1801097</v>
+        <v>-194.887075685634</v>
       </c>
       <c r="F25" t="n">
-        <v>0.098095</v>
+        <v>0.102470383992</v>
       </c>
       <c r="G25" t="n">
-        <v>70960.8689206</v>
+        <v>69427.78368029829</v>
       </c>
       <c r="H25" t="n">
-        <v>-70.90818160000001</v>
+        <v>-69.380456434069</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0177161</v>
+        <v>0.017335556651</v>
       </c>
       <c r="J25" t="n">
-        <v>-186.1801097</v>
+        <v>-194.887075685634</v>
       </c>
       <c r="K25" t="n">
-        <v>0.098095</v>
+        <v>0.102470383992</v>
       </c>
       <c r="L25" t="n">
-        <v>70960.8689206</v>
+        <v>69427.78368029829</v>
       </c>
       <c r="M25" t="n">
-        <v>-70.90818160000001</v>
+        <v>-69.380456434069</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0177161</v>
+        <v>0.017335556651</v>
       </c>
     </row>
     <row r="26">
@@ -8581,34 +8581,34 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>231.6432824</v>
+        <v>236.474722555805</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1115791</v>
+        <v>-0.114006994389</v>
       </c>
       <c r="G26" t="n">
-        <v>-77020.4938886</v>
+        <v>-76893.97542606578</v>
       </c>
       <c r="H26" t="n">
-        <v>76.987706</v>
+        <v>76.861629891246</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0192363</v>
+        <v>-0.019204941056</v>
       </c>
       <c r="J26" t="n">
-        <v>231.6432824</v>
+        <v>236.474722555805</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.1115791</v>
+        <v>-0.114006994389</v>
       </c>
       <c r="L26" t="n">
-        <v>-77020.4938886</v>
+        <v>-76893.97542606578</v>
       </c>
       <c r="M26" t="n">
-        <v>76.987706</v>
+        <v>76.861629891246</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0192363</v>
+        <v>-0.019204941056</v>
       </c>
     </row>
     <row r="27">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -8725,34 +8725,34 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>314.4048142</v>
+        <v>318.094471451535</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1545901</v>
+        <v>-0.156444422204</v>
       </c>
       <c r="G29" t="n">
-        <v>-152668.3449778</v>
+        <v>-154410.2332071213</v>
       </c>
       <c r="H29" t="n">
-        <v>152.5067343</v>
+        <v>154.242473911737</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0380845</v>
+        <v>-0.03851689233</v>
       </c>
       <c r="J29" t="n">
-        <v>314.4048142</v>
+        <v>318.094471451535</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1545901</v>
+        <v>-0.156444422204</v>
       </c>
       <c r="L29" t="n">
-        <v>-152668.3449778</v>
+        <v>-154410.2332071213</v>
       </c>
       <c r="M29" t="n">
-        <v>152.5067343</v>
+        <v>154.242473911737</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0380845</v>
+        <v>-0.03851689233</v>
       </c>
     </row>
     <row r="30">
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -8821,34 +8821,34 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-741.7642045</v>
+        <v>-741.764204484433</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3710061</v>
+        <v>0.371006100729</v>
       </c>
       <c r="G31" t="n">
-        <v>-143314.1684743</v>
+        <v>-143314.1684743427</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3493117</v>
+        <v>142.349311737595</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0353463</v>
+        <v>-0.035346310777</v>
       </c>
       <c r="J31" t="n">
-        <v>-741.7642045</v>
+        <v>-741.764204484433</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3710061</v>
+        <v>0.371006100729</v>
       </c>
       <c r="L31" t="n">
-        <v>-143314.1684743</v>
+        <v>-143314.1684743427</v>
       </c>
       <c r="M31" t="n">
-        <v>142.3493117</v>
+        <v>142.349311737595</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0353463</v>
+        <v>-0.035346310777</v>
       </c>
     </row>
     <row r="32">
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -8965,34 +8965,34 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4117.4344685</v>
+        <v>4114.612607193242</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.0437684</v>
+        <v>-2.042350397733</v>
       </c>
       <c r="G34" t="n">
-        <v>503753.0195368</v>
+        <v>512393.0377879965</v>
       </c>
       <c r="H34" t="n">
-        <v>-500.6907684</v>
+        <v>-509.30057873856</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1244129</v>
+        <v>0.126557762555</v>
       </c>
       <c r="J34" t="n">
-        <v>4117.4344685</v>
+        <v>4114.612607193242</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.0437684</v>
+        <v>-2.042350397733</v>
       </c>
       <c r="L34" t="n">
-        <v>503753.0195368</v>
+        <v>512393.0377879965</v>
       </c>
       <c r="M34" t="n">
-        <v>-500.6907684</v>
+        <v>-509.30057873856</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1244129</v>
+        <v>0.126557762555</v>
       </c>
     </row>
     <row r="35">
@@ -9013,34 +9013,34 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1178.1929411</v>
+        <v>1174.185759398031</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5773882</v>
+        <v>-0.5753745364940001</v>
       </c>
       <c r="G35" t="n">
-        <v>22560.6833833</v>
+        <v>21637.29844283697</v>
       </c>
       <c r="H35" t="n">
-        <v>-21.917571</v>
+        <v>-20.997414449849</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0053244</v>
+        <v>0.00509517152</v>
       </c>
       <c r="J35" t="n">
-        <v>1178.1929411</v>
+        <v>1174.185759398031</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.5773882</v>
+        <v>-0.5753745364940001</v>
       </c>
       <c r="L35" t="n">
-        <v>22560.6833833</v>
+        <v>21637.29844283697</v>
       </c>
       <c r="M35" t="n">
-        <v>-21.917571</v>
+        <v>-20.997414449849</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0053244</v>
+        <v>0.00509517152</v>
       </c>
     </row>
   </sheetData>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -11019,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -11547,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -11562,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -11610,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -11946,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -12282,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>

--- a/output/endemo2_specific_consumption_coef_heat.xlsx
+++ b/output/endemo2_specific_consumption_coef_heat.xlsx
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -9944,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -10328,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -10472,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -10932,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -11331,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -11571,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -11988,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -12003,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -12051,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -12084,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -12147,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -12180,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -12195,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -12243,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -12468,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7.470796460177</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7.470796460177</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -13855,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>7.470796460177</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>7.470796460177</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7.470796460177</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -13966,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>7.470796460177</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.470796460177</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>7.470796460177</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -14378,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -14426,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -14441,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -14474,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -14522,7 +14522,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -14537,7 +14537,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -14633,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -14666,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -14729,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -14762,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -14777,7 +14777,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -14858,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -14873,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -14906,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -14921,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -15017,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -15050,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -15065,7 +15065,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -15098,7 +15098,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -15146,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -15194,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -15209,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -15305,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -15338,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -15353,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -15401,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -15482,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -15545,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -15578,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -15593,7 +15593,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -15641,7 +15641,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -15674,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -15689,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -15770,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -15785,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -15866,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -15881,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -15929,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2.97908</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -16053,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -16068,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -16101,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -16116,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -16197,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -16245,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -16293,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -16341,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -16404,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -16437,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -16452,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -16485,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -16548,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -16596,7 +16596,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -16644,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -16773,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -16788,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -16821,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -16884,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -16917,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -16980,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -17013,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -17028,7 +17028,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -17061,7 +17061,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -17076,7 +17076,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -17220,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -17253,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -17268,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -17316,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -17349,7 +17349,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -17397,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -17412,7 +17412,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -17460,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -17493,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -17589,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6.133162642233</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -17776,7 +17776,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -17791,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -17824,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -17872,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -18016,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -18031,7 +18031,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -18112,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -18160,7 +18160,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -18175,7 +18175,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -18223,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -18319,7 +18319,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -18352,7 +18352,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -18367,7 +18367,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -18400,7 +18400,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -18415,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -18463,7 +18463,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -18496,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -18511,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -18544,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -18607,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -18655,7 +18655,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -18688,7 +18688,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -18736,7 +18736,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -18832,7 +18832,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -18847,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -18880,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -18895,7 +18895,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -18943,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -18976,7 +18976,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -18991,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -19024,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -19087,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -19120,7 +19120,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -19231,7 +19231,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -19264,7 +19264,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -19312,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -19360,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -19499,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -19562,7 +19562,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -19595,7 +19595,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -19658,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -19691,7 +19691,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -19706,7 +19706,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -19739,7 +19739,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -19754,7 +19754,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -19802,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -19835,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -19850,7 +19850,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -19883,7 +19883,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -19898,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -19946,7 +19946,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -19979,7 +19979,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -20075,7 +20075,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -20090,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -20138,7 +20138,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -20171,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -20186,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -20219,7 +20219,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -20267,7 +20267,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -20282,7 +20282,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -20411,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -20426,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -20459,7 +20459,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -20474,7 +20474,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -20507,7 +20507,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -20522,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -20555,7 +20555,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -20570,7 +20570,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -20618,7 +20618,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -20651,7 +20651,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -20666,7 +20666,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -20699,7 +20699,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -20747,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -20762,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -20795,7 +20795,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -20810,7 +20810,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -20843,7 +20843,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -20858,7 +20858,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -20891,7 +20891,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -20906,7 +20906,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -20939,7 +20939,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -20954,7 +20954,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -20987,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -21002,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -21035,7 +21035,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -21050,7 +21050,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -21083,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -21098,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -21222,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -21237,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -21285,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -21318,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -21333,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -21366,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -21381,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -21414,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -21462,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -21510,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -21525,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -21558,7 +21558,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -21654,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -21702,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -21717,7 +21717,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -21765,7 +21765,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -21798,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -21846,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -21861,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -21894,7 +21894,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -21909,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -21990,7 +21990,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -22005,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -22038,7 +22038,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -22086,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -22101,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -22134,7 +22134,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -22149,7 +22149,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -22182,7 +22182,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -22197,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -22230,7 +22230,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -22245,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -22278,7 +22278,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -22293,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -22326,7 +22326,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -22341,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -22374,7 +22374,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -22389,7 +22389,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -22422,7 +22422,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -22470,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -22485,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -22518,7 +22518,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -22566,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -22581,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -22614,7 +22614,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -22662,7 +22662,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -22806,7 +22806,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -22821,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -23008,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23056,7 +23056,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23104,7 +23104,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -23137,7 +23137,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23248,7 +23248,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23329,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23344,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -23377,7 +23377,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23440,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23488,7 +23488,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23536,7 +23536,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23584,7 +23584,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23617,7 +23617,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23632,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23680,7 +23680,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -23809,7 +23809,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -23824,7 +23824,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -23857,7 +23857,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -23872,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -23920,7 +23920,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24049,7 +24049,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24064,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -24097,7 +24097,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24112,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24160,7 +24160,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24289,7 +24289,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24337,7 +24337,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24352,7 +24352,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24400,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24433,7 +24433,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -24481,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -24529,7 +24529,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -24544,7 +24544,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
